--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2100</v>
       </c>
       <c r="H8" s="3">
         <v>2100</v>
       </c>
       <c r="I8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1800</v>
       </c>
       <c r="L8" s="3">
         <v>1800</v>
       </c>
       <c r="M8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,25 +1107,25 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1108,60 +1134,66 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
         <v>2100</v>
       </c>
       <c r="F18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1900</v>
       </c>
       <c r="H18" s="3">
         <v>1900</v>
       </c>
       <c r="I18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="J18" s="3">
         <v>1700</v>
       </c>
       <c r="K18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L18" s="3">
         <v>1500</v>
       </c>
       <c r="M18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N18" s="3">
         <v>3100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1500</v>
       </c>
       <c r="O18" s="3">
         <v>1500</v>
       </c>
       <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,13 +1220,13 @@
         <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
       </c>
       <c r="H20" s="3">
         <v>-1000</v>
@@ -1205,25 +1238,28 @@
         <v>-1000</v>
       </c>
       <c r="K20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,57 +1349,63 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>800</v>
       </c>
       <c r="H23" s="3">
         <v>800</v>
       </c>
       <c r="I23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>700</v>
       </c>
       <c r="K23" s="3">
+        <v>700</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1369,7 +1414,7 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1381,25 +1426,28 @@
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1490,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>600</v>
       </c>
       <c r="G26" s="3">
         <v>600</v>
@@ -1463,7 +1514,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J26" s="3">
         <v>500</v>
@@ -1475,30 +1526,33 @@
         <v>500</v>
       </c>
       <c r="M26" s="3">
+        <v>500</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>600</v>
       </c>
       <c r="G27" s="3">
         <v>600</v>
@@ -1507,7 +1561,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J27" s="3">
         <v>500</v>
@@ -1519,19 +1573,22 @@
         <v>500</v>
       </c>
       <c r="M27" s="3">
+        <v>500</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,11 +1648,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1600,12 +1660,12 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,13 +1784,13 @@
         <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
       </c>
       <c r="H32" s="3">
         <v>1000</v>
@@ -1733,36 +1802,39 @@
         <v>1000</v>
       </c>
       <c r="K32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>600</v>
       </c>
       <c r="G33" s="3">
         <v>600</v>
@@ -1771,31 +1843,34 @@
         <v>600</v>
       </c>
       <c r="I33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J33" s="3">
         <v>500</v>
       </c>
       <c r="K33" s="3">
+        <v>500</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1913,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>600</v>
       </c>
       <c r="G35" s="3">
         <v>600</v>
@@ -1859,80 +1937,86 @@
         <v>600</v>
       </c>
       <c r="I35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J35" s="3">
         <v>500</v>
       </c>
       <c r="K35" s="3">
+        <v>500</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,63 +2052,67 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E42" s="3">
         <v>46800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2000</v>
       </c>
       <c r="G42" s="3">
         <v>2000</v>
@@ -2032,16 +2121,16 @@
         <v>2000</v>
       </c>
       <c r="I42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="3">
         <v>700</v>
       </c>
       <c r="K42" s="3">
+        <v>700</v>
+      </c>
+      <c r="L42" s="3">
         <v>1200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2200</v>
       </c>
       <c r="M42" s="3">
         <v>2200</v>
@@ -2050,13 +2139,16 @@
         <v>2200</v>
       </c>
       <c r="O42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P42" s="3">
         <v>2500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,34 +2379,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6000</v>
       </c>
       <c r="F48" s="3">
         <v>6000</v>
       </c>
       <c r="G48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5800</v>
       </c>
       <c r="J48" s="3">
         <v>5800</v>
       </c>
       <c r="K48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="L48" s="3">
         <v>5900</v>
@@ -2314,13 +2421,16 @@
         <v>5900</v>
       </c>
       <c r="O48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="P48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E54" s="3">
         <v>235500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>217000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>201000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>198100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>185300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,13 +2761,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2646,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E66" s="3">
         <v>211600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>193800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>187200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>178100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>173300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>179000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>165900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>171400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E76" s="3">
         <v>23900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3705,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>600</v>
       </c>
       <c r="G81" s="3">
         <v>600</v>
@@ -3587,31 +3781,34 @@
         <v>600</v>
       </c>
       <c r="I81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J81" s="3">
         <v>500</v>
       </c>
       <c r="K81" s="3">
+        <v>500</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2100</v>
       </c>
       <c r="I8" s="3">
         <v>2100</v>
       </c>
       <c r="J8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1800</v>
       </c>
       <c r="M8" s="3">
         <v>1800</v>
       </c>
       <c r="N8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,25 +1137,25 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1137,63 +1164,69 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2100</v>
       </c>
       <c r="F18" s="3">
         <v>2100</v>
       </c>
       <c r="G18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H18" s="3">
         <v>2000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1900</v>
       </c>
       <c r="I18" s="3">
         <v>1900</v>
       </c>
       <c r="J18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
       </c>
       <c r="L18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M18" s="3">
         <v>1500</v>
       </c>
       <c r="N18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O18" s="3">
         <v>3100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1500</v>
       </c>
       <c r="P18" s="3">
         <v>1500</v>
       </c>
       <c r="Q18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,13 +1257,13 @@
         <v>-1200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1000</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
@@ -1241,25 +1275,28 @@
         <v>-1000</v>
       </c>
       <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
       </c>
       <c r="I23" s="3">
         <v>800</v>
       </c>
       <c r="J23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K23" s="3">
         <v>700</v>
       </c>
       <c r="L23" s="3">
+        <v>700</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1454,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1417,7 +1463,7 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1429,25 +1475,28 @@
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,22 +1542,25 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
@@ -1517,7 +1569,7 @@
         <v>600</v>
       </c>
       <c r="J26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
@@ -1529,33 +1581,36 @@
         <v>500</v>
       </c>
       <c r="N26" s="3">
+        <v>500</v>
+      </c>
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>600</v>
       </c>
       <c r="H27" s="3">
         <v>600</v>
@@ -1564,7 +1619,7 @@
         <v>600</v>
       </c>
       <c r="J27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K27" s="3">
         <v>500</v>
@@ -1576,19 +1631,22 @@
         <v>500</v>
       </c>
       <c r="N27" s="3">
+        <v>500</v>
+      </c>
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,11 +1712,11 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1663,12 +1724,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,13 +1857,13 @@
         <v>1200</v>
       </c>
       <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1000</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
@@ -1805,39 +1875,42 @@
         <v>1000</v>
       </c>
       <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>600</v>
       </c>
       <c r="H33" s="3">
         <v>600</v>
@@ -1846,31 +1919,34 @@
         <v>600</v>
       </c>
       <c r="J33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K33" s="3">
         <v>500</v>
       </c>
       <c r="L33" s="3">
+        <v>500</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,22 +1992,25 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>600</v>
       </c>
       <c r="H35" s="3">
         <v>600</v>
@@ -1940,83 +2019,89 @@
         <v>600</v>
       </c>
       <c r="J35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K35" s="3">
         <v>500</v>
       </c>
       <c r="L35" s="3">
+        <v>500</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,69 +2139,73 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E42" s="3">
         <v>32900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2000</v>
       </c>
       <c r="H42" s="3">
         <v>2000</v>
@@ -2124,16 +2214,16 @@
         <v>2000</v>
       </c>
       <c r="J42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K42" s="3">
         <v>700</v>
       </c>
       <c r="L42" s="3">
+        <v>700</v>
+      </c>
+      <c r="M42" s="3">
         <v>1200</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2200</v>
       </c>
       <c r="N42" s="3">
         <v>2200</v>
@@ -2142,13 +2232,16 @@
         <v>2200</v>
       </c>
       <c r="P42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,28 +2499,28 @@
         <v>6400</v>
       </c>
       <c r="E48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F48" s="3">
         <v>5900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6000</v>
       </c>
       <c r="G48" s="3">
         <v>6000</v>
       </c>
       <c r="H48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5800</v>
       </c>
       <c r="K48" s="3">
         <v>5800</v>
       </c>
       <c r="L48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="M48" s="3">
         <v>5900</v>
@@ -2424,13 +2532,16 @@
         <v>5900</v>
       </c>
       <c r="P48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="Q48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E54" s="3">
         <v>229500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>235500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>209500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>201000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>185300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>175100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2764,13 +2895,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2779,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E66" s="3">
         <v>205100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>211600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>193800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>187200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>178100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>173300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>179000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>171400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E76" s="3">
         <v>24400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,74 +3897,80 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>600</v>
       </c>
       <c r="H81" s="3">
         <v>600</v>
@@ -3784,31 +3979,34 @@
         <v>600</v>
       </c>
       <c r="J81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K81" s="3">
         <v>500</v>
       </c>
       <c r="L81" s="3">
+        <v>500</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2100</v>
       </c>
       <c r="J8" s="3">
         <v>2100</v>
       </c>
       <c r="K8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1800</v>
       </c>
       <c r="N8" s="3">
         <v>1800</v>
       </c>
       <c r="O8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1140,25 +1167,25 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1167,66 +1194,72 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2100</v>
       </c>
       <c r="G18" s="3">
         <v>2100</v>
       </c>
       <c r="H18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I18" s="3">
         <v>2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1900</v>
       </c>
       <c r="J18" s="3">
         <v>1900</v>
       </c>
       <c r="K18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L18" s="3">
         <v>1700</v>
       </c>
       <c r="M18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N18" s="3">
         <v>1500</v>
       </c>
       <c r="O18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3">
         <v>3100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1500</v>
       </c>
       <c r="Q18" s="3">
         <v>1500</v>
       </c>
       <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
         <v>-1200</v>
@@ -1260,13 +1294,13 @@
         <v>-1200</v>
       </c>
       <c r="G20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1000</v>
       </c>
       <c r="J20" s="3">
         <v>-1000</v>
@@ -1278,25 +1312,28 @@
         <v>-1000</v>
       </c>
       <c r="M20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,60 +1447,63 @@
         <v>900</v>
       </c>
       <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L23" s="3">
         <v>700</v>
       </c>
       <c r="M23" s="3">
+        <v>700</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1466,7 +1512,7 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1478,25 +1524,28 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,16 +1606,16 @@
         <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
@@ -1572,7 +1624,7 @@
         <v>600</v>
       </c>
       <c r="K26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L26" s="3">
         <v>500</v>
@@ -1584,19 +1636,22 @@
         <v>500</v>
       </c>
       <c r="O26" s="3">
+        <v>500</v>
+      </c>
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,16 +1659,16 @@
         <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
@@ -1622,7 +1677,7 @@
         <v>600</v>
       </c>
       <c r="K27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L27" s="3">
         <v>500</v>
@@ -1634,19 +1689,22 @@
         <v>500</v>
       </c>
       <c r="O27" s="3">
+        <v>500</v>
+      </c>
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
@@ -1860,13 +1930,13 @@
         <v>1200</v>
       </c>
       <c r="G32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1000</v>
       </c>
       <c r="J32" s="3">
         <v>1000</v>
@@ -1878,25 +1948,28 @@
         <v>1000</v>
       </c>
       <c r="M32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,16 +1977,16 @@
         <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>600</v>
       </c>
       <c r="I33" s="3">
         <v>600</v>
@@ -1922,31 +1995,34 @@
         <v>600</v>
       </c>
       <c r="K33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L33" s="3">
         <v>500</v>
       </c>
       <c r="M33" s="3">
+        <v>500</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,16 +2083,16 @@
         <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>600</v>
       </c>
       <c r="I35" s="3">
         <v>600</v>
@@ -2022,86 +2101,92 @@
         <v>600</v>
       </c>
       <c r="K35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L35" s="3">
         <v>500</v>
       </c>
       <c r="M35" s="3">
+        <v>500</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,75 +2226,79 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>28200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2000</v>
       </c>
       <c r="I42" s="3">
         <v>2000</v>
@@ -2217,16 +2307,16 @@
         <v>2000</v>
       </c>
       <c r="K42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="L42" s="3">
         <v>700</v>
       </c>
       <c r="M42" s="3">
+        <v>700</v>
+      </c>
+      <c r="N42" s="3">
         <v>1200</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2200</v>
       </c>
       <c r="O42" s="3">
         <v>2200</v>
@@ -2235,13 +2325,16 @@
         <v>2200</v>
       </c>
       <c r="Q42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R42" s="3">
         <v>2500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,40 +2595,43 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
         <v>6400</v>
       </c>
       <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
         <v>5900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6000</v>
       </c>
       <c r="H48" s="3">
         <v>6000</v>
       </c>
       <c r="I48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5800</v>
       </c>
       <c r="L48" s="3">
         <v>5800</v>
       </c>
       <c r="M48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="N48" s="3">
         <v>5900</v>
@@ -2535,13 +2643,16 @@
         <v>5900</v>
       </c>
       <c r="Q48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="R48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E54" s="3">
         <v>233100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>229500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>235500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>217000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>209500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>201000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>192800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>185300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>175100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2898,13 +3029,13 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2913,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E66" s="3">
         <v>208000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>205100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>211600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>193800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>187200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>178100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>173300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>179000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>171400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E72" s="3">
         <v>14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,16 +4159,16 @@
         <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>600</v>
       </c>
       <c r="I81" s="3">
         <v>600</v>
@@ -3982,31 +4177,34 @@
         <v>600</v>
       </c>
       <c r="K81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L81" s="3">
         <v>500</v>
       </c>
       <c r="M81" s="3">
+        <v>500</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,52 +755,55 @@
         <v>2500</v>
       </c>
       <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2100</v>
       </c>
       <c r="K8" s="3">
         <v>2100</v>
       </c>
       <c r="L8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>1800</v>
       </c>
       <c r="P8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1170,25 +1197,25 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1197,69 +1224,75 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2100</v>
       </c>
       <c r="H18" s="3">
         <v>2100</v>
       </c>
       <c r="I18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J18" s="3">
         <v>2000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1900</v>
       </c>
       <c r="K18" s="3">
         <v>1900</v>
       </c>
       <c r="L18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M18" s="3">
         <v>1700</v>
       </c>
       <c r="N18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="O18" s="3">
         <v>1500</v>
       </c>
       <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1500</v>
       </c>
       <c r="R18" s="3">
         <v>1500</v>
       </c>
       <c r="S18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1200</v>
       </c>
       <c r="F20" s="3">
         <v>-1200</v>
@@ -1297,13 +1331,13 @@
         <v>-1200</v>
       </c>
       <c r="H20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1315,25 +1349,28 @@
         <v>-1000</v>
       </c>
       <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,49 +1493,52 @@
         <v>900</v>
       </c>
       <c r="F23" s="3">
+        <v>900</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>800</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M23" s="3">
         <v>700</v>
       </c>
       <c r="N23" s="3">
+        <v>700</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,13 +1546,13 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1515,7 +1561,7 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1527,25 +1573,28 @@
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,28 +1646,31 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>600</v>
       </c>
       <c r="F26" s="3">
+        <v>600</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>600</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
@@ -1627,7 +1679,7 @@
         <v>600</v>
       </c>
       <c r="L26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M26" s="3">
         <v>500</v>
@@ -1639,39 +1691,42 @@
         <v>500</v>
       </c>
       <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>600</v>
       </c>
       <c r="F27" s="3">
+        <v>600</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>600</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
@@ -1680,7 +1735,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M27" s="3">
         <v>500</v>
@@ -1692,19 +1747,22 @@
         <v>500</v>
       </c>
       <c r="P27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1200</v>
       </c>
       <c r="F32" s="3">
         <v>1200</v>
@@ -1933,13 +2003,13 @@
         <v>1200</v>
       </c>
       <c r="H32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1951,45 +2021,48 @@
         <v>1000</v>
       </c>
       <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>600</v>
       </c>
       <c r="F33" s="3">
+        <v>600</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>600</v>
       </c>
       <c r="J33" s="3">
         <v>600</v>
@@ -1998,31 +2071,34 @@
         <v>600</v>
       </c>
       <c r="L33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M33" s="3">
         <v>500</v>
       </c>
       <c r="N33" s="3">
+        <v>500</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,28 +2150,31 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>600</v>
       </c>
       <c r="F35" s="3">
+        <v>600</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>600</v>
       </c>
       <c r="J35" s="3">
         <v>600</v>
@@ -2104,89 +2183,95 @@
         <v>600</v>
       </c>
       <c r="L35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M35" s="3">
         <v>500</v>
       </c>
       <c r="N35" s="3">
+        <v>500</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E41" s="3">
         <v>67700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2289,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>28200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2000</v>
       </c>
       <c r="J42" s="3">
         <v>2000</v>
@@ -2310,16 +2400,16 @@
         <v>2000</v>
       </c>
       <c r="L42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="M42" s="3">
         <v>700</v>
       </c>
       <c r="N42" s="3">
+        <v>700</v>
+      </c>
+      <c r="O42" s="3">
         <v>1200</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2200</v>
       </c>
       <c r="P42" s="3">
         <v>2200</v>
@@ -2328,13 +2418,16 @@
         <v>2200</v>
       </c>
       <c r="R42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S42" s="3">
         <v>2500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,43 +2703,46 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>6300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6400</v>
       </c>
       <c r="F48" s="3">
         <v>6400</v>
       </c>
       <c r="G48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H48" s="3">
         <v>5900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6000</v>
       </c>
       <c r="I48" s="3">
         <v>6000</v>
       </c>
       <c r="J48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5800</v>
       </c>
       <c r="M48" s="3">
         <v>5800</v>
       </c>
       <c r="N48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="O48" s="3">
         <v>5900</v>
@@ -2646,13 +2754,16 @@
         <v>5900</v>
       </c>
       <c r="R48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="S48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E54" s="3">
         <v>304000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>233100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>229500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>217000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>201000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>192800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>185300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>175100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3032,13 +3163,13 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3047,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E66" s="3">
         <v>278100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>208000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>205100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>211600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>187200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>173300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>179000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>165900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>171400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
         <v>25900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,86 +4281,92 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>600</v>
       </c>
       <c r="F81" s="3">
+        <v>600</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>600</v>
       </c>
       <c r="J81" s="3">
         <v>600</v>
@@ -4180,31 +4375,34 @@
         <v>600</v>
       </c>
       <c r="L81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M81" s="3">
         <v>500</v>
       </c>
       <c r="N81" s="3">
+        <v>500</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2100</v>
       </c>
       <c r="L8" s="3">
         <v>2100</v>
       </c>
       <c r="M8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1800</v>
       </c>
       <c r="P8" s="3">
         <v>1800</v>
       </c>
       <c r="Q8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1204,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1200,25 +1226,25 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1227,72 +1253,78 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2100</v>
       </c>
       <c r="I18" s="3">
         <v>2100</v>
       </c>
       <c r="J18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1900</v>
       </c>
       <c r="L18" s="3">
         <v>1900</v>
       </c>
       <c r="M18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="N18" s="3">
         <v>1700</v>
       </c>
       <c r="O18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="P18" s="3">
         <v>1500</v>
       </c>
       <c r="Q18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R18" s="3">
         <v>3100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1500</v>
       </c>
       <c r="S18" s="3">
         <v>1500</v>
       </c>
       <c r="T18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1345,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1200</v>
       </c>
       <c r="G20" s="3">
         <v>-1200</v>
@@ -1334,13 +1367,13 @@
         <v>-1200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
       </c>
       <c r="L20" s="3">
         <v>-1000</v>
@@ -1352,25 +1385,28 @@
         <v>-1000</v>
       </c>
       <c r="O20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1520,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>900</v>
@@ -1496,49 +1538,52 @@
         <v>900</v>
       </c>
       <c r="G23" s="3">
+        <v>900</v>
+      </c>
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>800</v>
       </c>
       <c r="L23" s="3">
         <v>800</v>
       </c>
       <c r="M23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N23" s="3">
         <v>700</v>
       </c>
       <c r="O23" s="3">
+        <v>700</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1549,13 +1594,13 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1564,7 +1609,7 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1576,25 +1621,28 @@
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,22 +1709,22 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>600</v>
       </c>
       <c r="G26" s="3">
+        <v>600</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
@@ -1682,7 +1733,7 @@
         <v>600</v>
       </c>
       <c r="M26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N26" s="3">
         <v>500</v>
@@ -1694,19 +1745,22 @@
         <v>500</v>
       </c>
       <c r="Q26" s="3">
+        <v>500</v>
+      </c>
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,22 +1768,22 @@
         <v>700</v>
       </c>
       <c r="E27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>600</v>
       </c>
       <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>600</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
@@ -1738,7 +1792,7 @@
         <v>600</v>
       </c>
       <c r="M27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N27" s="3">
         <v>500</v>
@@ -1750,19 +1804,22 @@
         <v>500</v>
       </c>
       <c r="Q27" s="3">
+        <v>500</v>
+      </c>
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2051,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1200</v>
       </c>
       <c r="G32" s="3">
         <v>1200</v>
@@ -2006,13 +2075,13 @@
         <v>1200</v>
       </c>
       <c r="I32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
       </c>
       <c r="L32" s="3">
         <v>1000</v>
@@ -2024,25 +2093,28 @@
         <v>1000</v>
       </c>
       <c r="O32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,22 +2122,22 @@
         <v>700</v>
       </c>
       <c r="E33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>600</v>
       </c>
       <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>600</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
@@ -2074,31 +2146,34 @@
         <v>600</v>
       </c>
       <c r="M33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N33" s="3">
         <v>500</v>
       </c>
       <c r="O33" s="3">
+        <v>500</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,22 +2240,22 @@
         <v>700</v>
       </c>
       <c r="E35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>600</v>
       </c>
       <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>600</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
@@ -2186,92 +2264,98 @@
         <v>600</v>
       </c>
       <c r="M35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N35" s="3">
         <v>500</v>
       </c>
       <c r="O35" s="3">
+        <v>500</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E41" s="3">
         <v>58900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2382,19 +2471,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>28200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2000</v>
       </c>
       <c r="K42" s="3">
         <v>2000</v>
@@ -2403,16 +2492,16 @@
         <v>2000</v>
       </c>
       <c r="M42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="N42" s="3">
         <v>700</v>
       </c>
       <c r="O42" s="3">
+        <v>700</v>
+      </c>
+      <c r="P42" s="3">
         <v>1200</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2200</v>
       </c>
       <c r="Q42" s="3">
         <v>2200</v>
@@ -2421,13 +2510,16 @@
         <v>2200</v>
       </c>
       <c r="S42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T42" s="3">
         <v>2500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,46 +2810,49 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6400</v>
       </c>
       <c r="G48" s="3">
         <v>6400</v>
       </c>
       <c r="H48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I48" s="3">
         <v>5900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6000</v>
       </c>
       <c r="J48" s="3">
         <v>6000</v>
       </c>
       <c r="K48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5800</v>
       </c>
       <c r="N48" s="3">
         <v>5800</v>
       </c>
       <c r="O48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="P48" s="3">
         <v>5900</v>
@@ -2757,13 +2864,16 @@
         <v>5900</v>
       </c>
       <c r="S48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="T48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>314800</v>
+      </c>
+      <c r="E54" s="3">
         <v>303500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>304000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>233100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>229500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>217000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>192800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>185300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>175100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,7 +3284,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3166,13 +3296,13 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3181,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E66" s="3">
         <v>277000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>278100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>208000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>205100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>211600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>187200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>173300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>179000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>165900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>171400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>161600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E72" s="3">
         <v>15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,22 +4548,22 @@
         <v>700</v>
       </c>
       <c r="E81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>600</v>
       </c>
       <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>600</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
@@ -4378,31 +4572,34 @@
         <v>600</v>
       </c>
       <c r="M81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N81" s="3">
         <v>500</v>
       </c>
       <c r="O81" s="3">
+        <v>500</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,58 +762,61 @@
         <v>2900</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F8" s="3">
         <v>2500</v>
       </c>
       <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2100</v>
       </c>
       <c r="M8" s="3">
         <v>2100</v>
       </c>
       <c r="N8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1800</v>
       </c>
       <c r="Q8" s="3">
         <v>1800</v>
       </c>
       <c r="R8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,22 +1231,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1229,25 +1256,25 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1256,75 +1283,81 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2100</v>
       </c>
       <c r="J18" s="3">
         <v>2100</v>
       </c>
       <c r="K18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L18" s="3">
         <v>2000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1900</v>
       </c>
       <c r="M18" s="3">
         <v>1900</v>
       </c>
       <c r="N18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="O18" s="3">
         <v>1700</v>
       </c>
       <c r="P18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q18" s="3">
         <v>1500</v>
       </c>
       <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>3100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1500</v>
       </c>
       <c r="U18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,13 +1389,13 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
       </c>
       <c r="H20" s="3">
         <v>-1200</v>
@@ -1370,13 +1404,13 @@
         <v>-1200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1000</v>
       </c>
       <c r="M20" s="3">
         <v>-1000</v>
@@ -1388,25 +1422,28 @@
         <v>-1000</v>
       </c>
       <c r="P20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,16 +1563,19 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>900</v>
       </c>
       <c r="F23" s="3">
         <v>900</v>
@@ -1541,49 +1584,52 @@
         <v>900</v>
       </c>
       <c r="H23" s="3">
+        <v>900</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>800</v>
       </c>
       <c r="M23" s="3">
         <v>800</v>
       </c>
       <c r="N23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>700</v>
       </c>
       <c r="P23" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,13 +1643,13 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -1612,7 +1658,7 @@
         <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
@@ -1624,25 +1670,28 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,34 +1749,37 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>600</v>
       </c>
       <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>600</v>
       </c>
       <c r="L26" s="3">
         <v>600</v>
@@ -1736,7 +1788,7 @@
         <v>600</v>
       </c>
       <c r="N26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O26" s="3">
         <v>500</v>
@@ -1748,45 +1800,48 @@
         <v>500</v>
       </c>
       <c r="R26" s="3">
+        <v>500</v>
+      </c>
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>600</v>
       </c>
       <c r="H27" s="3">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>600</v>
       </c>
       <c r="L27" s="3">
         <v>600</v>
@@ -1795,7 +1850,7 @@
         <v>600</v>
       </c>
       <c r="N27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O27" s="3">
         <v>500</v>
@@ -1807,19 +1862,22 @@
         <v>500</v>
       </c>
       <c r="R27" s="3">
+        <v>500</v>
+      </c>
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,13 +2133,13 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1200</v>
       </c>
       <c r="H32" s="3">
         <v>1200</v>
@@ -2078,13 +2148,13 @@
         <v>1200</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1000</v>
       </c>
       <c r="M32" s="3">
         <v>1000</v>
@@ -2096,51 +2166,54 @@
         <v>1000</v>
       </c>
       <c r="P32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>600</v>
       </c>
       <c r="H33" s="3">
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>600</v>
       </c>
       <c r="L33" s="3">
         <v>600</v>
@@ -2149,31 +2222,34 @@
         <v>600</v>
       </c>
       <c r="N33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O33" s="3">
         <v>500</v>
       </c>
       <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,34 +2307,37 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>600</v>
       </c>
       <c r="H35" s="3">
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>600</v>
       </c>
       <c r="L35" s="3">
         <v>600</v>
@@ -2267,95 +2346,101 @@
         <v>600</v>
       </c>
       <c r="N35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O35" s="3">
         <v>500</v>
       </c>
       <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,72 +2486,76 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E41" s="3">
         <v>58100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2474,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>28200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2000</v>
       </c>
       <c r="L42" s="3">
         <v>2000</v>
@@ -2495,16 +2585,16 @@
         <v>2000</v>
       </c>
       <c r="N42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="O42" s="3">
         <v>700</v>
       </c>
       <c r="P42" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>2200</v>
       </c>
       <c r="R42" s="3">
         <v>2200</v>
@@ -2513,13 +2603,16 @@
         <v>2200</v>
       </c>
       <c r="T42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U42" s="3">
         <v>2500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,40 +2930,40 @@
         <v>6100</v>
       </c>
       <c r="E48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6400</v>
       </c>
       <c r="H48" s="3">
         <v>6400</v>
       </c>
       <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
         <v>5900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6000</v>
       </c>
       <c r="K48" s="3">
         <v>6000</v>
       </c>
       <c r="L48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5800</v>
       </c>
       <c r="O48" s="3">
         <v>5800</v>
       </c>
       <c r="P48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="Q48" s="3">
         <v>5900</v>
@@ -2867,13 +2975,16 @@
         <v>5900</v>
       </c>
       <c r="T48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="U48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E54" s="3">
         <v>314800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>303500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>304000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>233100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>229500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>192800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>180300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>185300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>175100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3287,7 +3418,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3299,13 +3430,13 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3314,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>311200</v>
+      </c>
+      <c r="E66" s="3">
         <v>287600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>277000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>278100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>208000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>205100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>211600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>187200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>178100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>173300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>179000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>165900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>171400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E72" s="3">
         <v>16400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E76" s="3">
         <v>27200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,98 +4664,104 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>600</v>
       </c>
       <c r="H81" s="3">
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>600</v>
       </c>
       <c r="L81" s="3">
         <v>600</v>
@@ -4575,31 +4770,34 @@
         <v>600</v>
       </c>
       <c r="N81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O81" s="3">
         <v>500</v>
       </c>
       <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
         <v>2900</v>
       </c>
       <c r="F8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="G8" s="3">
         <v>2500</v>
       </c>
       <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2100</v>
       </c>
       <c r="N8" s="3">
         <v>2100</v>
       </c>
       <c r="O8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1800</v>
       </c>
       <c r="R8" s="3">
         <v>1800</v>
       </c>
       <c r="S8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,16 +1268,16 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1259,25 +1286,25 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1286,78 +1313,84 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2100</v>
       </c>
       <c r="K18" s="3">
         <v>2100</v>
       </c>
       <c r="L18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M18" s="3">
         <v>2000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1900</v>
       </c>
       <c r="N18" s="3">
         <v>1900</v>
       </c>
       <c r="O18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="P18" s="3">
         <v>1700</v>
       </c>
       <c r="Q18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="R18" s="3">
         <v>1500</v>
       </c>
       <c r="S18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="3">
         <v>3100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1500</v>
       </c>
       <c r="U18" s="3">
         <v>1500</v>
       </c>
       <c r="V18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,25 +1413,26 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1200</v>
       </c>
       <c r="I20" s="3">
         <v>-1200</v>
@@ -1407,13 +1441,13 @@
         <v>-1200</v>
       </c>
       <c r="K20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1000</v>
       </c>
       <c r="N20" s="3">
         <v>-1000</v>
@@ -1425,25 +1459,28 @@
         <v>-1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,10 +1618,10 @@
         <v>1200</v>
       </c>
       <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>900</v>
       </c>
       <c r="G23" s="3">
         <v>900</v>
@@ -1587,49 +1630,52 @@
         <v>900</v>
       </c>
       <c r="I23" s="3">
+        <v>900</v>
+      </c>
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>800</v>
       </c>
       <c r="N23" s="3">
         <v>800</v>
       </c>
       <c r="O23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>700</v>
       </c>
       <c r="Q23" s="3">
+        <v>700</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,13 +1692,13 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1661,7 +1707,7 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1673,25 +1719,28 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,37 +1801,40 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>700</v>
       </c>
       <c r="G26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
       </c>
       <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>600</v>
       </c>
       <c r="M26" s="3">
         <v>600</v>
@@ -1791,7 +1843,7 @@
         <v>600</v>
       </c>
       <c r="O26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P26" s="3">
         <v>500</v>
@@ -1803,48 +1855,51 @@
         <v>500</v>
       </c>
       <c r="S26" s="3">
+        <v>500</v>
+      </c>
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>700</v>
       </c>
       <c r="G27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>600</v>
       </c>
       <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>600</v>
       </c>
       <c r="M27" s="3">
         <v>600</v>
@@ -1853,7 +1908,7 @@
         <v>600</v>
       </c>
       <c r="O27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P27" s="3">
         <v>500</v>
@@ -1865,19 +1920,22 @@
         <v>500</v>
       </c>
       <c r="S27" s="3">
+        <v>500</v>
+      </c>
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,25 +2191,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1200</v>
       </c>
       <c r="I32" s="3">
         <v>1200</v>
@@ -2151,13 +2221,13 @@
         <v>1200</v>
       </c>
       <c r="K32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1000</v>
       </c>
       <c r="N32" s="3">
         <v>1000</v>
@@ -2169,54 +2239,57 @@
         <v>1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>700</v>
       </c>
       <c r="G33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>600</v>
       </c>
       <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>600</v>
       </c>
       <c r="M33" s="3">
         <v>600</v>
@@ -2225,31 +2298,34 @@
         <v>600</v>
       </c>
       <c r="O33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P33" s="3">
         <v>500</v>
       </c>
       <c r="Q33" s="3">
+        <v>500</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,37 +2386,40 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>700</v>
       </c>
       <c r="G35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>600</v>
       </c>
       <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>600</v>
       </c>
       <c r="M35" s="3">
         <v>600</v>
@@ -2349,98 +2428,104 @@
         <v>600</v>
       </c>
       <c r="O35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P35" s="3">
         <v>500</v>
       </c>
       <c r="Q35" s="3">
+        <v>500</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,78 +2573,82 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E41" s="3">
         <v>78900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2567,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>28200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16600</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2000</v>
       </c>
       <c r="M42" s="3">
         <v>2000</v>
@@ -2588,16 +2678,16 @@
         <v>2000</v>
       </c>
       <c r="O42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="P42" s="3">
         <v>700</v>
       </c>
       <c r="Q42" s="3">
+        <v>700</v>
+      </c>
+      <c r="R42" s="3">
         <v>1200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>2200</v>
       </c>
       <c r="S42" s="3">
         <v>2200</v>
@@ -2606,13 +2696,16 @@
         <v>2200</v>
       </c>
       <c r="U42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V42" s="3">
         <v>2500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,52 +3026,55 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
         <v>6100</v>
       </c>
       <c r="F48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6400</v>
       </c>
       <c r="I48" s="3">
         <v>6400</v>
       </c>
       <c r="J48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6000</v>
       </c>
       <c r="L48" s="3">
         <v>6000</v>
       </c>
       <c r="M48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5800</v>
       </c>
       <c r="P48" s="3">
         <v>5800</v>
       </c>
       <c r="Q48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="R48" s="3">
         <v>5900</v>
@@ -2978,13 +3086,16 @@
         <v>5900</v>
       </c>
       <c r="U48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="V48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>353300</v>
+      </c>
+      <c r="E54" s="3">
         <v>338700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>314800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>303500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>304000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>233100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>229500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>235500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>217000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>202200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>201000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>192800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>185300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>175100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3421,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3433,13 +3564,13 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3448,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,13 +3791,16 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E61" s="3">
         <v>3100</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>324900</v>
+      </c>
+      <c r="E66" s="3">
         <v>311200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>287600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>277000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>278100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>208000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>205100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>193800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>187200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>178100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>173300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>179000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>165900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>171400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>161600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E72" s="3">
         <v>17300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E76" s="3">
         <v>27500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,104 +4856,110 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>700</v>
       </c>
       <c r="G81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>600</v>
       </c>
       <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>600</v>
       </c>
       <c r="M81" s="3">
         <v>600</v>
@@ -4773,31 +4968,34 @@
         <v>600</v>
       </c>
       <c r="O81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P81" s="3">
         <v>500</v>
       </c>
       <c r="Q81" s="3">
+        <v>500</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2900</v>
       </c>
       <c r="F8" s="3">
         <v>2900</v>
       </c>
       <c r="G8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2100</v>
       </c>
       <c r="O8" s="3">
         <v>2100</v>
       </c>
       <c r="P8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1800</v>
       </c>
       <c r="S8" s="3">
         <v>1800</v>
       </c>
       <c r="T8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,16 +1298,16 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1289,25 +1316,25 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1316,81 +1343,87 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2100</v>
       </c>
       <c r="L18" s="3">
         <v>2100</v>
       </c>
       <c r="M18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N18" s="3">
         <v>2000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1900</v>
       </c>
       <c r="O18" s="3">
         <v>1900</v>
       </c>
       <c r="P18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="Q18" s="3">
         <v>1700</v>
       </c>
       <c r="R18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="S18" s="3">
         <v>1500</v>
       </c>
       <c r="T18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U18" s="3">
         <v>3100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1500</v>
       </c>
       <c r="V18" s="3">
         <v>1500</v>
       </c>
       <c r="W18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,28 +1447,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
       </c>
       <c r="F20" s="3">
         <v>-1400</v>
       </c>
       <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1200</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
@@ -1444,13 +1478,13 @@
         <v>-1200</v>
       </c>
       <c r="L20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1000</v>
       </c>
       <c r="O20" s="3">
         <v>-1000</v>
@@ -1462,25 +1496,28 @@
         <v>-1000</v>
       </c>
       <c r="R20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,22 +1649,25 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
       </c>
       <c r="F23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>900</v>
       </c>
       <c r="H23" s="3">
         <v>900</v>
@@ -1633,49 +1676,52 @@
         <v>900</v>
       </c>
       <c r="J23" s="3">
+        <v>900</v>
+      </c>
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q23" s="3">
         <v>700</v>
       </c>
       <c r="R23" s="3">
+        <v>700</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1695,13 +1741,13 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -1710,7 +1756,7 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1722,25 +1768,28 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,40 +1853,43 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>700</v>
       </c>
       <c r="H26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>600</v>
       </c>
       <c r="N26" s="3">
         <v>600</v>
@@ -1846,7 +1898,7 @@
         <v>600</v>
       </c>
       <c r="P26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="3">
         <v>500</v>
@@ -1858,51 +1910,54 @@
         <v>500</v>
       </c>
       <c r="T26" s="3">
+        <v>500</v>
+      </c>
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>700</v>
       </c>
       <c r="H27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>600</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>600</v>
       </c>
       <c r="N27" s="3">
         <v>600</v>
@@ -1911,7 +1966,7 @@
         <v>600</v>
       </c>
       <c r="P27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q27" s="3">
         <v>500</v>
@@ -1923,19 +1978,22 @@
         <v>500</v>
       </c>
       <c r="T27" s="3">
+        <v>500</v>
+      </c>
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2261,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1400</v>
       </c>
       <c r="F32" s="3">
         <v>1400</v>
       </c>
       <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1200</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
@@ -2224,13 +2294,13 @@
         <v>1200</v>
       </c>
       <c r="L32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1000</v>
       </c>
       <c r="O32" s="3">
         <v>1000</v>
@@ -2242,57 +2312,60 @@
         <v>1000</v>
       </c>
       <c r="R32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>700</v>
       </c>
       <c r="H33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I33" s="3">
         <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>600</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>600</v>
       </c>
       <c r="N33" s="3">
         <v>600</v>
@@ -2301,31 +2374,34 @@
         <v>600</v>
       </c>
       <c r="P33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q33" s="3">
         <v>500</v>
       </c>
       <c r="R33" s="3">
+        <v>500</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,40 +2465,43 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>700</v>
       </c>
       <c r="H35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I35" s="3">
         <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>600</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>600</v>
       </c>
       <c r="N35" s="3">
         <v>600</v>
@@ -2431,101 +2510,107 @@
         <v>600</v>
       </c>
       <c r="P35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="3">
         <v>500</v>
       </c>
       <c r="R35" s="3">
+        <v>500</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>78900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,8 +2740,8 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2660,19 +2750,19 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>28200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2000</v>
       </c>
       <c r="N42" s="3">
         <v>2000</v>
@@ -2681,16 +2771,16 @@
         <v>2000</v>
       </c>
       <c r="P42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="Q42" s="3">
         <v>700</v>
       </c>
       <c r="R42" s="3">
+        <v>700</v>
+      </c>
+      <c r="S42" s="3">
         <v>1200</v>
-      </c>
-      <c r="S42" s="3">
-        <v>2200</v>
       </c>
       <c r="T42" s="3">
         <v>2200</v>
@@ -2699,13 +2789,16 @@
         <v>2200</v>
       </c>
       <c r="V42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W42" s="3">
         <v>2500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,46 +3146,46 @@
         <v>6000</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
         <v>6100</v>
       </c>
       <c r="G48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6400</v>
       </c>
       <c r="J48" s="3">
         <v>6400</v>
       </c>
       <c r="K48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L48" s="3">
         <v>5900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6000</v>
       </c>
       <c r="M48" s="3">
         <v>6000</v>
       </c>
       <c r="N48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5800</v>
       </c>
       <c r="Q48" s="3">
         <v>5800</v>
       </c>
       <c r="R48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="S48" s="3">
         <v>5900</v>
@@ -3089,13 +3197,16 @@
         <v>5900</v>
       </c>
       <c r="V48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="W48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370200</v>
+      </c>
+      <c r="E54" s="3">
         <v>353300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>338700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>314800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>303500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>304000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>233100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>229500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>235500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>217000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>202000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>202200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>201000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>192800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>180300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>185300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>175100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3555,7 +3686,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3567,13 +3698,13 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3582,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,7 +3946,7 @@
         <v>13100</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="F61" s="3">
         <v>3100</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E66" s="3">
         <v>324900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>287600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>277000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>278100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>208000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>205100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>193800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>181200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>178100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>173300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>179000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>165900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>171400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>161600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E76" s="3">
         <v>28400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,110 +5048,116 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>700</v>
       </c>
       <c r="H81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I81" s="3">
         <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>600</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>600</v>
       </c>
       <c r="N81" s="3">
         <v>600</v>
@@ -4971,31 +5166,34 @@
         <v>600</v>
       </c>
       <c r="P81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q81" s="3">
         <v>500</v>
       </c>
       <c r="R81" s="3">
+        <v>500</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2900</v>
       </c>
       <c r="G8" s="3">
         <v>2900</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="I8" s="3">
         <v>2500</v>
       </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2100</v>
       </c>
       <c r="P8" s="3">
         <v>2100</v>
       </c>
       <c r="Q8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1800</v>
       </c>
       <c r="T8" s="3">
         <v>1800</v>
       </c>
       <c r="U8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1311,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1301,16 +1327,16 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1319,25 +1345,25 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1346,84 +1372,90 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2100</v>
       </c>
       <c r="M18" s="3">
         <v>2100</v>
       </c>
       <c r="N18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O18" s="3">
         <v>2000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1900</v>
       </c>
       <c r="P18" s="3">
         <v>1900</v>
       </c>
       <c r="Q18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="R18" s="3">
         <v>1700</v>
       </c>
       <c r="S18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T18" s="3">
         <v>1500</v>
       </c>
       <c r="U18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V18" s="3">
         <v>3100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1500</v>
       </c>
       <c r="W18" s="3">
         <v>1500</v>
       </c>
       <c r="X18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,31 +1480,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1200</v>
       </c>
       <c r="K20" s="3">
         <v>-1200</v>
@@ -1481,13 +1514,13 @@
         <v>-1200</v>
       </c>
       <c r="M20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
       </c>
       <c r="P20" s="3">
         <v>-1000</v>
@@ -1499,25 +1532,28 @@
         <v>-1000</v>
       </c>
       <c r="S20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,16 +1703,16 @@
         <v>1000</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="3">
         <v>1200</v>
       </c>
       <c r="G23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>900</v>
       </c>
       <c r="I23" s="3">
         <v>900</v>
@@ -1679,49 +1721,52 @@
         <v>900</v>
       </c>
       <c r="K23" s="3">
+        <v>900</v>
+      </c>
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R23" s="3">
         <v>700</v>
       </c>
       <c r="S23" s="3">
+        <v>700</v>
+      </c>
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1744,13 +1789,13 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -1759,7 +1804,7 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1771,25 +1816,28 @@
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,34 +1916,34 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>700</v>
       </c>
       <c r="I26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
       </c>
       <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>600</v>
       </c>
       <c r="O26" s="3">
         <v>600</v>
@@ -1901,7 +1952,7 @@
         <v>600</v>
       </c>
       <c r="Q26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R26" s="3">
         <v>500</v>
@@ -1913,19 +1964,22 @@
         <v>500</v>
       </c>
       <c r="U26" s="3">
+        <v>500</v>
+      </c>
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,34 +1987,34 @@
         <v>700</v>
       </c>
       <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>700</v>
       </c>
       <c r="I27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
       </c>
       <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>600</v>
       </c>
       <c r="O27" s="3">
         <v>600</v>
@@ -1969,7 +2023,7 @@
         <v>600</v>
       </c>
       <c r="Q27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R27" s="3">
         <v>500</v>
@@ -1981,19 +2035,22 @@
         <v>500</v>
       </c>
       <c r="U27" s="3">
+        <v>500</v>
+      </c>
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,31 +2330,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1200</v>
       </c>
       <c r="K32" s="3">
         <v>1200</v>
@@ -2297,13 +2366,13 @@
         <v>1200</v>
       </c>
       <c r="M32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
       </c>
       <c r="P32" s="3">
         <v>1000</v>
@@ -2315,25 +2384,28 @@
         <v>1000</v>
       </c>
       <c r="S32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,34 +2413,34 @@
         <v>700</v>
       </c>
       <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>700</v>
       </c>
       <c r="I33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>600</v>
       </c>
       <c r="K33" s="3">
+        <v>600</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>600</v>
       </c>
       <c r="O33" s="3">
         <v>600</v>
@@ -2377,31 +2449,34 @@
         <v>600</v>
       </c>
       <c r="Q33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R33" s="3">
         <v>500</v>
       </c>
       <c r="S33" s="3">
+        <v>500</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,34 +2555,34 @@
         <v>700</v>
       </c>
       <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>700</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>600</v>
       </c>
       <c r="K35" s="3">
+        <v>600</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>600</v>
       </c>
       <c r="O35" s="3">
         <v>600</v>
@@ -2513,104 +2591,110 @@
         <v>600</v>
       </c>
       <c r="Q35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R35" s="3">
         <v>500</v>
       </c>
       <c r="S35" s="3">
+        <v>500</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,81 +2746,85 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E41" s="3">
         <v>123400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2743,8 +2832,8 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2753,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>28200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2000</v>
       </c>
       <c r="O42" s="3">
         <v>2000</v>
@@ -2774,16 +2863,16 @@
         <v>2000</v>
       </c>
       <c r="Q42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="R42" s="3">
         <v>700</v>
       </c>
       <c r="S42" s="3">
+        <v>700</v>
+      </c>
+      <c r="T42" s="3">
         <v>1200</v>
-      </c>
-      <c r="T42" s="3">
-        <v>2200</v>
       </c>
       <c r="U42" s="3">
         <v>2200</v>
@@ -2792,13 +2881,16 @@
         <v>2200</v>
       </c>
       <c r="W42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X42" s="3">
         <v>2500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,58 +3241,61 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
         <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="3">
         <v>6100</v>
       </c>
       <c r="H48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6400</v>
       </c>
       <c r="K48" s="3">
         <v>6400</v>
       </c>
       <c r="L48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M48" s="3">
         <v>5900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6000</v>
       </c>
       <c r="N48" s="3">
         <v>6000</v>
       </c>
       <c r="O48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P48" s="3">
         <v>6100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5800</v>
       </c>
       <c r="R48" s="3">
         <v>5800</v>
       </c>
       <c r="S48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="T48" s="3">
         <v>5900</v>
@@ -3200,13 +3307,16 @@
         <v>5900</v>
       </c>
       <c r="W48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="X48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>378500</v>
+      </c>
+      <c r="E54" s="3">
         <v>370200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>353300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>338700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>314800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>303500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>304000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>233100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>229500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>235500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>217000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>202000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>202200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>201000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>192800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>180300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>185300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>175100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3689,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3701,13 +3831,13 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3716,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +4091,7 @@
         <v>13100</v>
       </c>
       <c r="F61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="G61" s="3">
         <v>3100</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E66" s="3">
         <v>341000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>324900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>311200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>277000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>278100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>208000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>205100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>193800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>181200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>180500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>178100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>173300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>179000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>165900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>171400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>161600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E72" s="3">
         <v>18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E76" s="3">
         <v>29100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,34 +5327,34 @@
         <v>700</v>
       </c>
       <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>700</v>
       </c>
       <c r="I81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>600</v>
       </c>
       <c r="K81" s="3">
+        <v>600</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>600</v>
       </c>
       <c r="O81" s="3">
         <v>600</v>
@@ -5169,31 +5363,34 @@
         <v>600</v>
       </c>
       <c r="Q81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R81" s="3">
         <v>500</v>
       </c>
       <c r="S81" s="3">
+        <v>500</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2900</v>
       </c>
       <c r="H8" s="3">
         <v>2900</v>
       </c>
       <c r="I8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="J8" s="3">
         <v>2500</v>
       </c>
       <c r="K8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2100</v>
       </c>
       <c r="Q8" s="3">
         <v>2100</v>
       </c>
       <c r="R8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1800</v>
       </c>
       <c r="U8" s="3">
         <v>1800</v>
       </c>
       <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,16 +1338,17 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1330,16 +1357,16 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1348,25 +1375,25 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1375,87 +1402,93 @@
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2100</v>
       </c>
       <c r="N18" s="3">
         <v>2100</v>
       </c>
       <c r="O18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P18" s="3">
         <v>2000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1900</v>
       </c>
       <c r="Q18" s="3">
         <v>1900</v>
       </c>
       <c r="R18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="S18" s="3">
         <v>1700</v>
       </c>
       <c r="T18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="U18" s="3">
         <v>1500</v>
       </c>
       <c r="V18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W18" s="3">
         <v>3100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1500</v>
       </c>
       <c r="X18" s="3">
         <v>1500</v>
       </c>
       <c r="Y18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,25 +1524,25 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1200</v>
       </c>
       <c r="L20" s="3">
         <v>-1200</v>
@@ -1517,13 +1551,13 @@
         <v>-1200</v>
       </c>
       <c r="N20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1000</v>
@@ -1535,25 +1569,28 @@
         <v>-1000</v>
       </c>
       <c r="T20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,28 +1734,31 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="3">
         <v>1000</v>
       </c>
       <c r="F23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="3">
         <v>1200</v>
       </c>
       <c r="H23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>900</v>
       </c>
       <c r="J23" s="3">
         <v>900</v>
@@ -1724,54 +1767,57 @@
         <v>900</v>
       </c>
       <c r="L23" s="3">
+        <v>900</v>
+      </c>
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>800</v>
       </c>
       <c r="Q23" s="3">
         <v>800</v>
       </c>
       <c r="R23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S23" s="3">
         <v>700</v>
       </c>
       <c r="T23" s="3">
+        <v>700</v>
+      </c>
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1792,13 +1838,13 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1807,7 +1853,7 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
@@ -1819,25 +1865,28 @@
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,46 +1956,49 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
+        <v>700</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>700</v>
       </c>
       <c r="I26" s="3">
         <v>700</v>
       </c>
       <c r="J26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
       </c>
       <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>600</v>
       </c>
       <c r="P26" s="3">
         <v>600</v>
@@ -1955,7 +2007,7 @@
         <v>600</v>
       </c>
       <c r="R26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S26" s="3">
         <v>500</v>
@@ -1967,57 +2019,60 @@
         <v>500</v>
       </c>
       <c r="V26" s="3">
+        <v>500</v>
+      </c>
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
+        <v>700</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>700</v>
       </c>
       <c r="I27" s="3">
         <v>700</v>
       </c>
       <c r="J27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
       </c>
       <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>600</v>
       </c>
       <c r="P27" s="3">
         <v>600</v>
@@ -2026,7 +2081,7 @@
         <v>600</v>
       </c>
       <c r="R27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S27" s="3">
         <v>500</v>
@@ -2038,19 +2093,22 @@
         <v>500</v>
       </c>
       <c r="V27" s="3">
+        <v>500</v>
+      </c>
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,17 +2216,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,25 +2412,25 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1200</v>
       </c>
       <c r="L32" s="3">
         <v>1200</v>
@@ -2369,13 +2439,13 @@
         <v>1200</v>
       </c>
       <c r="N32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1000</v>
       </c>
       <c r="Q32" s="3">
         <v>1000</v>
@@ -2387,63 +2457,66 @@
         <v>1000</v>
       </c>
       <c r="T32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
+        <v>700</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>700</v>
       </c>
       <c r="I33" s="3">
         <v>700</v>
       </c>
       <c r="J33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
       </c>
       <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>600</v>
       </c>
       <c r="P33" s="3">
         <v>600</v>
@@ -2452,31 +2525,34 @@
         <v>600</v>
       </c>
       <c r="R33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S33" s="3">
         <v>500</v>
       </c>
       <c r="T33" s="3">
+        <v>500</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,46 +2622,49 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
+        <v>700</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>700</v>
       </c>
       <c r="I35" s="3">
         <v>700</v>
       </c>
       <c r="J35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
       </c>
       <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>600</v>
       </c>
       <c r="P35" s="3">
         <v>600</v>
@@ -2594,107 +2673,113 @@
         <v>600</v>
       </c>
       <c r="R35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S35" s="3">
         <v>500</v>
       </c>
       <c r="T35" s="3">
+        <v>500</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,93 +2833,97 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E41" s="3">
         <v>135600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2845,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>28200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2000</v>
       </c>
       <c r="P42" s="3">
         <v>2000</v>
@@ -2866,16 +2956,16 @@
         <v>2000</v>
       </c>
       <c r="R42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="S42" s="3">
         <v>700</v>
       </c>
       <c r="T42" s="3">
+        <v>700</v>
+      </c>
+      <c r="U42" s="3">
         <v>1200</v>
-      </c>
-      <c r="U42" s="3">
-        <v>2200</v>
       </c>
       <c r="V42" s="3">
         <v>2200</v>
@@ -2884,13 +2974,16 @@
         <v>2200</v>
       </c>
       <c r="X42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y42" s="3">
         <v>2500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,61 +3349,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6000</v>
       </c>
       <c r="F48" s="3">
         <v>6000</v>
       </c>
       <c r="G48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H48" s="3">
         <v>6100</v>
       </c>
       <c r="I48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6400</v>
       </c>
       <c r="L48" s="3">
         <v>6400</v>
       </c>
       <c r="M48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N48" s="3">
         <v>5900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6000</v>
       </c>
       <c r="O48" s="3">
         <v>6000</v>
       </c>
       <c r="P48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5800</v>
       </c>
       <c r="S48" s="3">
         <v>5800</v>
       </c>
       <c r="T48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="U48" s="3">
         <v>5900</v>
@@ -3310,13 +3418,16 @@
         <v>5900</v>
       </c>
       <c r="X48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="Y48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>412800</v>
+      </c>
+      <c r="E54" s="3">
         <v>378500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>353300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>338700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>314800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>303500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>304000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>233100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>229500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>217000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>209500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>202000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>202200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>201000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>192800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>198300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>180300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>185300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>175100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,19 +3925,20 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3822,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3834,13 +3965,13 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3849,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4094,7 +4237,7 @@
         <v>13100</v>
       </c>
       <c r="G61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="H61" s="3">
         <v>3100</v>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>383800</v>
+      </c>
+      <c r="E66" s="3">
         <v>348900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>341000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>324900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>311200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>287600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>277000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>278100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>208000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>205100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>211600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>193800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>181200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>180500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>178100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>173300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>179000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>165900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>171400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>161600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E72" s="3">
         <v>19600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,122 +5431,128 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
+        <v>700</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>700</v>
       </c>
       <c r="I81" s="3">
         <v>700</v>
       </c>
       <c r="J81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
       </c>
       <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>600</v>
       </c>
       <c r="P81" s="3">
         <v>600</v>
@@ -5366,31 +5561,34 @@
         <v>600</v>
       </c>
       <c r="R81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S81" s="3">
         <v>500</v>
       </c>
       <c r="T81" s="3">
+        <v>500</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2900</v>
       </c>
       <c r="I8" s="3">
         <v>2900</v>
       </c>
       <c r="J8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K8" s="3">
         <v>2500</v>
       </c>
       <c r="L8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2100</v>
       </c>
       <c r="R8" s="3">
         <v>2100</v>
       </c>
       <c r="S8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1800</v>
       </c>
       <c r="V8" s="3">
         <v>1800</v>
       </c>
       <c r="W8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,19 +1365,20 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1360,16 +1387,16 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1378,25 +1405,25 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1405,90 +1432,96 @@
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2100</v>
       </c>
       <c r="O18" s="3">
         <v>2100</v>
       </c>
       <c r="P18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1900</v>
       </c>
       <c r="R18" s="3">
         <v>1900</v>
       </c>
       <c r="S18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T18" s="3">
         <v>1700</v>
       </c>
       <c r="U18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="V18" s="3">
         <v>1500</v>
       </c>
       <c r="W18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X18" s="3">
         <v>3100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1500</v>
       </c>
       <c r="Y18" s="3">
         <v>1500</v>
       </c>
       <c r="Z18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,37 +1548,38 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1200</v>
       </c>
       <c r="M20" s="3">
         <v>-1200</v>
@@ -1554,13 +1588,13 @@
         <v>-1200</v>
       </c>
       <c r="O20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1000</v>
       </c>
       <c r="R20" s="3">
         <v>-1000</v>
@@ -1572,25 +1606,28 @@
         <v>-1000</v>
       </c>
       <c r="U20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,31 +1777,34 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1000</v>
       </c>
       <c r="F23" s="3">
         <v>1000</v>
       </c>
       <c r="G23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="3">
         <v>1200</v>
       </c>
       <c r="I23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>900</v>
       </c>
       <c r="K23" s="3">
         <v>900</v>
@@ -1770,57 +1813,60 @@
         <v>900</v>
       </c>
       <c r="M23" s="3">
+        <v>900</v>
+      </c>
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>800</v>
       </c>
       <c r="R23" s="3">
         <v>800</v>
       </c>
       <c r="S23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T23" s="3">
         <v>700</v>
       </c>
       <c r="U23" s="3">
+        <v>700</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1841,13 +1887,13 @@
         <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1856,7 +1902,7 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
@@ -1868,25 +1914,28 @@
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,49 +2008,52 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>700</v>
       </c>
       <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
       </c>
       <c r="K26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>600</v>
       </c>
       <c r="M26" s="3">
+        <v>600</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>600</v>
       </c>
       <c r="Q26" s="3">
         <v>600</v>
@@ -2010,7 +2062,7 @@
         <v>600</v>
       </c>
       <c r="S26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T26" s="3">
         <v>500</v>
@@ -2022,60 +2074,63 @@
         <v>500</v>
       </c>
       <c r="W26" s="3">
+        <v>500</v>
+      </c>
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>700</v>
       </c>
       <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>700</v>
       </c>
       <c r="K27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>600</v>
       </c>
       <c r="M27" s="3">
+        <v>600</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>600</v>
       </c>
       <c r="Q27" s="3">
         <v>600</v>
@@ -2084,7 +2139,7 @@
         <v>600</v>
       </c>
       <c r="S27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T27" s="3">
         <v>500</v>
@@ -2096,19 +2151,22 @@
         <v>500</v>
       </c>
       <c r="W27" s="3">
+        <v>500</v>
+      </c>
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,37 +2470,40 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
       </c>
       <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1200</v>
       </c>
       <c r="M32" s="3">
         <v>1200</v>
@@ -2442,13 +2512,13 @@
         <v>1200</v>
       </c>
       <c r="O32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1000</v>
       </c>
       <c r="R32" s="3">
         <v>1000</v>
@@ -2460,66 +2530,69 @@
         <v>1000</v>
       </c>
       <c r="U32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>700</v>
       </c>
       <c r="G33" s="3">
+        <v>700</v>
+      </c>
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>700</v>
       </c>
       <c r="K33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L33" s="3">
         <v>600</v>
       </c>
       <c r="M33" s="3">
+        <v>600</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>600</v>
       </c>
       <c r="Q33" s="3">
         <v>600</v>
@@ -2528,31 +2601,34 @@
         <v>600</v>
       </c>
       <c r="S33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T33" s="3">
         <v>500</v>
       </c>
       <c r="U33" s="3">
+        <v>500</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,49 +2701,52 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>700</v>
       </c>
       <c r="G35" s="3">
+        <v>700</v>
+      </c>
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>700</v>
       </c>
       <c r="K35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L35" s="3">
         <v>600</v>
       </c>
       <c r="M35" s="3">
+        <v>600</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>600</v>
       </c>
       <c r="Q35" s="3">
         <v>600</v>
@@ -2676,110 +2755,116 @@
         <v>600</v>
       </c>
       <c r="S35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T35" s="3">
         <v>500</v>
       </c>
       <c r="U35" s="3">
+        <v>500</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E41" s="3">
         <v>89400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>135600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>78900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2938,19 +3028,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>28200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2000</v>
       </c>
       <c r="Q42" s="3">
         <v>2000</v>
@@ -2959,16 +3049,16 @@
         <v>2000</v>
       </c>
       <c r="S42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="T42" s="3">
         <v>700</v>
       </c>
       <c r="U42" s="3">
+        <v>700</v>
+      </c>
+      <c r="V42" s="3">
         <v>1200</v>
-      </c>
-      <c r="V42" s="3">
-        <v>2200</v>
       </c>
       <c r="W42" s="3">
         <v>2200</v>
@@ -2977,13 +3067,16 @@
         <v>2200</v>
       </c>
       <c r="Y42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z42" s="3">
         <v>2500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,55 +3469,55 @@
         <v>5800</v>
       </c>
       <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
         <v>5900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6000</v>
       </c>
       <c r="G48" s="3">
         <v>6000</v>
       </c>
       <c r="H48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I48" s="3">
         <v>6100</v>
       </c>
       <c r="J48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6400</v>
       </c>
       <c r="M48" s="3">
         <v>6400</v>
       </c>
       <c r="N48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O48" s="3">
         <v>5900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6000</v>
       </c>
       <c r="P48" s="3">
         <v>6000</v>
       </c>
       <c r="Q48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5800</v>
       </c>
       <c r="T48" s="3">
         <v>5800</v>
       </c>
       <c r="U48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="V48" s="3">
         <v>5900</v>
@@ -3421,13 +3529,16 @@
         <v>5900</v>
       </c>
       <c r="Y48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="Z48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>406800</v>
+      </c>
+      <c r="E54" s="3">
         <v>412800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>378500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>370200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>353300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>338700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>314800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>304000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>233100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>229500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>235500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>217000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>209500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>202000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>202200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>201000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>192800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>198300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>180300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>185300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>175100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,22 +4056,23 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3956,7 +4087,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3968,13 +4099,13 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3983,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4240,7 +4383,7 @@
         <v>13100</v>
       </c>
       <c r="H61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="I61" s="3">
         <v>3100</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E66" s="3">
         <v>383800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>348900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>341000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>324900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>311200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>287600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>277000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>278100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>208000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>205100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>211600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>193800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>187200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>180300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>181200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>180500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>178100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>173300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>179000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>165900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>171400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>161600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E72" s="3">
         <v>20500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,128 +5623,134 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>700</v>
       </c>
       <c r="G81" s="3">
+        <v>700</v>
+      </c>
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>700</v>
       </c>
       <c r="K81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L81" s="3">
         <v>600</v>
       </c>
       <c r="M81" s="3">
+        <v>600</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>600</v>
       </c>
       <c r="Q81" s="3">
         <v>600</v>
@@ -5564,31 +5759,34 @@
         <v>600</v>
       </c>
       <c r="S81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T81" s="3">
         <v>500</v>
       </c>
       <c r="U81" s="3">
+        <v>500</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2900</v>
       </c>
       <c r="J8" s="3">
         <v>2900</v>
       </c>
       <c r="K8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L8" s="3">
         <v>2500</v>
       </c>
       <c r="M8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2100</v>
       </c>
       <c r="S8" s="3">
         <v>2100</v>
       </c>
       <c r="T8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1800</v>
       </c>
       <c r="W8" s="3">
         <v>1800</v>
       </c>
       <c r="X8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,22 +1392,23 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1390,16 +1417,16 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1408,25 +1435,25 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1435,93 +1462,99 @@
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2100</v>
       </c>
       <c r="P18" s="3">
         <v>2100</v>
       </c>
       <c r="Q18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R18" s="3">
         <v>2000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1900</v>
       </c>
       <c r="S18" s="3">
         <v>1900</v>
       </c>
       <c r="T18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="U18" s="3">
         <v>1700</v>
       </c>
       <c r="V18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="W18" s="3">
         <v>1500</v>
       </c>
       <c r="X18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1500</v>
       </c>
       <c r="Z18" s="3">
         <v>1500</v>
       </c>
       <c r="AA18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,40 +1582,41 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
       </c>
       <c r="F20" s="3">
         <v>-1400</v>
       </c>
       <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
       </c>
       <c r="J20" s="3">
         <v>-1400</v>
       </c>
       <c r="K20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1200</v>
       </c>
       <c r="N20" s="3">
         <v>-1200</v>
@@ -1591,13 +1625,13 @@
         <v>-1200</v>
       </c>
       <c r="P20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1000</v>
       </c>
       <c r="S20" s="3">
         <v>-1000</v>
@@ -1609,25 +1643,28 @@
         <v>-1000</v>
       </c>
       <c r="V20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,34 +1820,37 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1000</v>
       </c>
       <c r="G23" s="3">
         <v>1000</v>
       </c>
       <c r="H23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="3">
         <v>1200</v>
       </c>
       <c r="J23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>900</v>
       </c>
       <c r="L23" s="3">
         <v>900</v>
@@ -1816,60 +1859,63 @@
         <v>900</v>
       </c>
       <c r="N23" s="3">
+        <v>900</v>
+      </c>
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>800</v>
       </c>
       <c r="S23" s="3">
         <v>800</v>
       </c>
       <c r="T23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U23" s="3">
         <v>700</v>
       </c>
       <c r="V23" s="3">
+        <v>700</v>
+      </c>
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1890,13 +1936,13 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1905,7 +1951,7 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
@@ -1917,25 +1963,28 @@
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,52 +2060,55 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>700</v>
       </c>
       <c r="H26" s="3">
+        <v>700</v>
+      </c>
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
       </c>
       <c r="L26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M26" s="3">
         <v>600</v>
       </c>
       <c r="N26" s="3">
+        <v>600</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>600</v>
       </c>
       <c r="R26" s="3">
         <v>600</v>
@@ -2065,7 +2117,7 @@
         <v>600</v>
       </c>
       <c r="T26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U26" s="3">
         <v>500</v>
@@ -2077,63 +2129,66 @@
         <v>500</v>
       </c>
       <c r="X26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>700</v>
       </c>
       <c r="H27" s="3">
+        <v>700</v>
+      </c>
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>700</v>
       </c>
       <c r="L27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M27" s="3">
         <v>600</v>
       </c>
       <c r="N27" s="3">
+        <v>600</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>600</v>
       </c>
       <c r="R27" s="3">
         <v>600</v>
@@ -2142,7 +2197,7 @@
         <v>600</v>
       </c>
       <c r="T27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U27" s="3">
         <v>500</v>
@@ -2154,19 +2209,22 @@
         <v>500</v>
       </c>
       <c r="X27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,17 +2344,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2301,12 +2362,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,40 +2540,43 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1400</v>
       </c>
       <c r="F32" s="3">
         <v>1400</v>
       </c>
       <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
       </c>
       <c r="J32" s="3">
         <v>1400</v>
       </c>
       <c r="K32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1200</v>
       </c>
       <c r="N32" s="3">
         <v>1200</v>
@@ -2515,13 +2585,13 @@
         <v>1200</v>
       </c>
       <c r="P32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1000</v>
       </c>
       <c r="S32" s="3">
         <v>1000</v>
@@ -2533,69 +2603,72 @@
         <v>1000</v>
       </c>
       <c r="V32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>700</v>
       </c>
       <c r="H33" s="3">
+        <v>700</v>
+      </c>
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>700</v>
       </c>
       <c r="L33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M33" s="3">
         <v>600</v>
       </c>
       <c r="N33" s="3">
+        <v>600</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>600</v>
       </c>
       <c r="R33" s="3">
         <v>600</v>
@@ -2604,31 +2677,34 @@
         <v>600</v>
       </c>
       <c r="T33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U33" s="3">
         <v>500</v>
       </c>
       <c r="V33" s="3">
+        <v>500</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,52 +2780,55 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>700</v>
       </c>
       <c r="H35" s="3">
+        <v>700</v>
+      </c>
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>700</v>
       </c>
       <c r="L35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M35" s="3">
         <v>600</v>
       </c>
       <c r="N35" s="3">
+        <v>600</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>600</v>
       </c>
       <c r="R35" s="3">
         <v>600</v>
@@ -2758,113 +2837,119 @@
         <v>600</v>
       </c>
       <c r="T35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U35" s="3">
         <v>500</v>
       </c>
       <c r="V35" s="3">
+        <v>500</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E41" s="3">
         <v>65500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>135600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>30500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3031,19 +3121,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>28200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>46800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>2000</v>
       </c>
       <c r="R42" s="3">
         <v>2000</v>
@@ -3052,16 +3142,16 @@
         <v>2000</v>
       </c>
       <c r="T42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="U42" s="3">
         <v>700</v>
       </c>
       <c r="V42" s="3">
+        <v>700</v>
+      </c>
+      <c r="W42" s="3">
         <v>1200</v>
-      </c>
-      <c r="W42" s="3">
-        <v>2200</v>
       </c>
       <c r="X42" s="3">
         <v>2200</v>
@@ -3070,13 +3160,16 @@
         <v>2200</v>
       </c>
       <c r="Z42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA42" s="3">
         <v>2500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,67 +3565,70 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
         <v>5800</v>
       </c>
       <c r="F48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G48" s="3">
         <v>5900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6000</v>
       </c>
       <c r="H48" s="3">
         <v>6000</v>
       </c>
       <c r="I48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J48" s="3">
         <v>6100</v>
       </c>
       <c r="K48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6400</v>
       </c>
       <c r="N48" s="3">
         <v>6400</v>
       </c>
       <c r="O48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P48" s="3">
         <v>5900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6000</v>
       </c>
       <c r="Q48" s="3">
         <v>6000</v>
       </c>
       <c r="R48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S48" s="3">
         <v>6100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5800</v>
       </c>
       <c r="U48" s="3">
         <v>5800</v>
       </c>
       <c r="V48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="W48" s="3">
         <v>5900</v>
@@ -3532,13 +3640,16 @@
         <v>5900</v>
       </c>
       <c r="Z48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="AA48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>416600</v>
+      </c>
+      <c r="E54" s="3">
         <v>406800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>412800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>378500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>370200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>353300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>338700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>314800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>303500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>304000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>233100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>229500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>235500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>217000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>209500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>202000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>202200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>201000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>198100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>192800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>198300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>180300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>185300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>175100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,25 +4187,26 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -4090,7 +4221,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4102,13 +4233,13 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4117,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4386,7 +4529,7 @@
         <v>13100</v>
       </c>
       <c r="I61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="J61" s="3">
         <v>3100</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>385700</v>
+      </c>
+      <c r="E66" s="3">
         <v>376900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>383800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>348900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>341000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>324900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>311200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>287600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>277000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>278100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>208000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>205100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>211600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>193800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>180300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>181200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>180500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>178100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>173300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>179000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>165900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>171400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>161600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E76" s="3">
         <v>30000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,134 +5815,140 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>700</v>
       </c>
       <c r="H81" s="3">
+        <v>700</v>
+      </c>
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>700</v>
       </c>
       <c r="L81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M81" s="3">
         <v>600</v>
       </c>
       <c r="N81" s="3">
+        <v>600</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>600</v>
       </c>
       <c r="R81" s="3">
         <v>600</v>
@@ -5762,31 +5957,34 @@
         <v>600</v>
       </c>
       <c r="T81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U81" s="3">
         <v>500</v>
       </c>
       <c r="V81" s="3">
+        <v>500</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2900</v>
       </c>
       <c r="K8" s="3">
         <v>2900</v>
       </c>
       <c r="L8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="M8" s="3">
         <v>2500</v>
       </c>
       <c r="N8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2100</v>
       </c>
       <c r="T8" s="3">
         <v>2100</v>
       </c>
       <c r="U8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1800</v>
       </c>
       <c r="X8" s="3">
         <v>1800</v>
       </c>
       <c r="Y8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,25 +1418,26 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1420,16 +1446,16 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1438,25 +1464,25 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1465,96 +1491,102 @@
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2100</v>
       </c>
       <c r="Q18" s="3">
         <v>2100</v>
       </c>
       <c r="R18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S18" s="3">
         <v>2000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1900</v>
       </c>
       <c r="T18" s="3">
         <v>1900</v>
       </c>
       <c r="U18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="V18" s="3">
         <v>1700</v>
       </c>
       <c r="W18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="X18" s="3">
         <v>1500</v>
       </c>
       <c r="Y18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1500</v>
       </c>
       <c r="AA18" s="3">
         <v>1500</v>
       </c>
       <c r="AB18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,43 +1615,44 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1200</v>
       </c>
       <c r="O20" s="3">
         <v>-1200</v>
@@ -1628,13 +1661,13 @@
         <v>-1200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1000</v>
       </c>
       <c r="T20" s="3">
         <v>-1000</v>
@@ -1646,25 +1679,28 @@
         <v>-1000</v>
       </c>
       <c r="W20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,37 +1862,40 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1000</v>
       </c>
       <c r="H23" s="3">
         <v>1000</v>
       </c>
       <c r="I23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="3">
         <v>1200</v>
       </c>
       <c r="K23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L23" s="3">
         <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>900</v>
       </c>
       <c r="M23" s="3">
         <v>900</v>
@@ -1862,63 +1904,66 @@
         <v>900</v>
       </c>
       <c r="O23" s="3">
+        <v>900</v>
+      </c>
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>800</v>
       </c>
       <c r="T23" s="3">
         <v>800</v>
       </c>
       <c r="U23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V23" s="3">
         <v>700</v>
       </c>
       <c r="W23" s="3">
+        <v>700</v>
+      </c>
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1939,13 +1984,13 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
@@ -1954,7 +1999,7 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
@@ -1966,25 +2011,28 @@
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,55 +2111,58 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>700</v>
       </c>
       <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>700</v>
       </c>
       <c r="M26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N26" s="3">
         <v>600</v>
       </c>
       <c r="O26" s="3">
+        <v>600</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>600</v>
       </c>
       <c r="S26" s="3">
         <v>600</v>
@@ -2120,7 +2171,7 @@
         <v>600</v>
       </c>
       <c r="U26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V26" s="3">
         <v>500</v>
@@ -2132,66 +2183,69 @@
         <v>500</v>
       </c>
       <c r="Y26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>700</v>
       </c>
       <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>700</v>
       </c>
       <c r="M27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N27" s="3">
         <v>600</v>
       </c>
       <c r="O27" s="3">
+        <v>600</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>600</v>
       </c>
       <c r="S27" s="3">
         <v>600</v>
@@ -2200,7 +2254,7 @@
         <v>600</v>
       </c>
       <c r="U27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V27" s="3">
         <v>500</v>
@@ -2212,19 +2266,22 @@
         <v>500</v>
       </c>
       <c r="Y27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,17 +2407,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,43 +2609,46 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1200</v>
       </c>
       <c r="O32" s="3">
         <v>1200</v>
@@ -2588,13 +2657,13 @@
         <v>1200</v>
       </c>
       <c r="Q32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1000</v>
       </c>
       <c r="T32" s="3">
         <v>1000</v>
@@ -2606,72 +2675,75 @@
         <v>1000</v>
       </c>
       <c r="W32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>700</v>
       </c>
       <c r="I33" s="3">
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>700</v>
       </c>
       <c r="L33" s="3">
         <v>700</v>
       </c>
       <c r="M33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N33" s="3">
         <v>600</v>
       </c>
       <c r="O33" s="3">
+        <v>600</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>600</v>
       </c>
       <c r="S33" s="3">
         <v>600</v>
@@ -2680,31 +2752,34 @@
         <v>600</v>
       </c>
       <c r="U33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V33" s="3">
         <v>500</v>
       </c>
       <c r="W33" s="3">
+        <v>500</v>
+      </c>
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,55 +2858,58 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>700</v>
       </c>
       <c r="I35" s="3">
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>700</v>
       </c>
       <c r="L35" s="3">
         <v>700</v>
       </c>
       <c r="M35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N35" s="3">
         <v>600</v>
       </c>
       <c r="O35" s="3">
+        <v>600</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>600</v>
       </c>
       <c r="S35" s="3">
         <v>600</v>
@@ -2840,116 +2918,122 @@
         <v>600</v>
       </c>
       <c r="U35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V35" s="3">
         <v>500</v>
       </c>
       <c r="W35" s="3">
+        <v>500</v>
+      </c>
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E41" s="3">
         <v>57200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>135600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>29800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>37100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>30500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3124,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>28200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>46800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>2000</v>
       </c>
       <c r="S42" s="3">
         <v>2000</v>
@@ -3145,16 +3234,16 @@
         <v>2000</v>
       </c>
       <c r="U42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="V42" s="3">
         <v>700</v>
       </c>
       <c r="W42" s="3">
+        <v>700</v>
+      </c>
+      <c r="X42" s="3">
         <v>1200</v>
-      </c>
-      <c r="X42" s="3">
-        <v>2200</v>
       </c>
       <c r="Y42" s="3">
         <v>2200</v>
@@ -3163,13 +3252,16 @@
         <v>2200</v>
       </c>
       <c r="AA42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB42" s="3">
         <v>2500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,70 +3672,73 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5800</v>
       </c>
       <c r="F48" s="3">
         <v>5800</v>
       </c>
       <c r="G48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H48" s="3">
         <v>5900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6000</v>
       </c>
       <c r="I48" s="3">
         <v>6000</v>
       </c>
       <c r="J48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K48" s="3">
         <v>6100</v>
       </c>
       <c r="L48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M48" s="3">
         <v>6200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6400</v>
       </c>
       <c r="O48" s="3">
         <v>6400</v>
       </c>
       <c r="P48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6000</v>
       </c>
       <c r="R48" s="3">
         <v>6000</v>
       </c>
       <c r="S48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T48" s="3">
         <v>6100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5800</v>
       </c>
       <c r="V48" s="3">
         <v>5800</v>
       </c>
       <c r="W48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="X48" s="3">
         <v>5900</v>
@@ -3643,13 +3750,16 @@
         <v>5900</v>
       </c>
       <c r="AA48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="AB48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>399800</v>
+      </c>
+      <c r="E54" s="3">
         <v>416600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>406800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>412800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>378500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>370200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>353300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>338700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>314800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>304000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>233100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>229500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>235500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>217000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>209500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>202000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>202200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>201000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>198100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>192800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>198300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>180300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>185300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>175100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,28 +4317,29 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4224,7 +4354,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -4236,13 +4366,13 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4251,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4647,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4532,7 +4674,7 @@
         <v>13100</v>
       </c>
       <c r="J61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="K61" s="3">
         <v>3100</v>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>367500</v>
+      </c>
+      <c r="E66" s="3">
         <v>385700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>376900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>383800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>348900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>341000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>324900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>311200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>287600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>277000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>278100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>205100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>211600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>193800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>180300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>181200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>180500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>178100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>173300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>179000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>165900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>171400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>161600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>23000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E76" s="3">
         <v>30900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,140 +6006,146 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>700</v>
       </c>
       <c r="I81" s="3">
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>700</v>
       </c>
       <c r="L81" s="3">
         <v>700</v>
       </c>
       <c r="M81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N81" s="3">
         <v>600</v>
       </c>
       <c r="O81" s="3">
+        <v>600</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>600</v>
       </c>
       <c r="S81" s="3">
         <v>600</v>
@@ -5960,31 +6154,34 @@
         <v>600</v>
       </c>
       <c r="U81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V81" s="3">
         <v>500</v>
       </c>
       <c r="W81" s="3">
+        <v>500</v>
+      </c>
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,82 +792,85 @@
         <v>3900</v>
       </c>
       <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2900</v>
       </c>
       <c r="L8" s="3">
         <v>2900</v>
       </c>
       <c r="M8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N8" s="3">
         <v>2500</v>
       </c>
       <c r="O8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2100</v>
       </c>
       <c r="U8" s="3">
         <v>2100</v>
       </c>
       <c r="V8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1800</v>
       </c>
       <c r="Y8" s="3">
         <v>1800</v>
       </c>
       <c r="Z8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,28 +1445,29 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1449,16 +1476,16 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1467,25 +1494,25 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
@@ -1494,99 +1521,105 @@
         <v>300</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2100</v>
       </c>
       <c r="R18" s="3">
         <v>2100</v>
       </c>
       <c r="S18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T18" s="3">
         <v>2000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1900</v>
       </c>
       <c r="U18" s="3">
         <v>1900</v>
       </c>
       <c r="V18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="W18" s="3">
         <v>1700</v>
       </c>
       <c r="X18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Y18" s="3">
         <v>1500</v>
       </c>
       <c r="Z18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3100</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1500</v>
       </c>
       <c r="AB18" s="3">
         <v>1500</v>
       </c>
       <c r="AC18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,46 +1649,47 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1400</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1200</v>
       </c>
       <c r="P20" s="3">
         <v>-1200</v>
@@ -1664,13 +1698,13 @@
         <v>-1200</v>
       </c>
       <c r="R20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1000</v>
       </c>
       <c r="U20" s="3">
         <v>-1000</v>
@@ -1682,25 +1716,28 @@
         <v>-1000</v>
       </c>
       <c r="X20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,40 +1905,43 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1000</v>
       </c>
       <c r="I23" s="3">
         <v>1000</v>
       </c>
       <c r="J23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="3">
         <v>1200</v>
       </c>
       <c r="L23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M23" s="3">
         <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>900</v>
       </c>
       <c r="N23" s="3">
         <v>900</v>
@@ -1907,49 +1950,52 @@
         <v>900</v>
       </c>
       <c r="P23" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>800</v>
       </c>
       <c r="U23" s="3">
         <v>800</v>
       </c>
       <c r="V23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W23" s="3">
         <v>700</v>
       </c>
       <c r="X23" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,16 +2003,16 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1987,13 +2033,13 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -2002,7 +2048,7 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
@@ -2014,25 +2060,28 @@
         <v>200</v>
       </c>
       <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>200</v>
       </c>
       <c r="AC24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,58 +2163,61 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>700</v>
       </c>
       <c r="I26" s="3">
         <v>700</v>
       </c>
       <c r="J26" s="3">
+        <v>700</v>
+      </c>
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>700</v>
       </c>
       <c r="M26" s="3">
         <v>700</v>
       </c>
       <c r="N26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O26" s="3">
         <v>600</v>
       </c>
       <c r="P26" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>600</v>
       </c>
       <c r="T26" s="3">
         <v>600</v>
@@ -2174,7 +2226,7 @@
         <v>600</v>
       </c>
       <c r="V26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W26" s="3">
         <v>500</v>
@@ -2186,69 +2238,72 @@
         <v>500</v>
       </c>
       <c r="Z26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>700</v>
       </c>
       <c r="I27" s="3">
         <v>700</v>
       </c>
       <c r="J27" s="3">
+        <v>700</v>
+      </c>
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>700</v>
       </c>
       <c r="M27" s="3">
         <v>700</v>
       </c>
       <c r="N27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O27" s="3">
         <v>600</v>
       </c>
       <c r="P27" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>600</v>
       </c>
       <c r="T27" s="3">
         <v>600</v>
@@ -2257,7 +2312,7 @@
         <v>600</v>
       </c>
       <c r="V27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W27" s="3">
         <v>500</v>
@@ -2269,19 +2324,22 @@
         <v>500</v>
       </c>
       <c r="Z27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,17 +2471,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2428,12 +2489,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,46 +2679,49 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1400</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1200</v>
       </c>
       <c r="P32" s="3">
         <v>1200</v>
@@ -2660,13 +2730,13 @@
         <v>1200</v>
       </c>
       <c r="R32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1000</v>
       </c>
       <c r="U32" s="3">
         <v>1000</v>
@@ -2678,75 +2748,78 @@
         <v>1000</v>
       </c>
       <c r="X32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>700</v>
       </c>
       <c r="I33" s="3">
         <v>700</v>
       </c>
       <c r="J33" s="3">
+        <v>700</v>
+      </c>
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>700</v>
       </c>
       <c r="M33" s="3">
         <v>700</v>
       </c>
       <c r="N33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O33" s="3">
         <v>600</v>
       </c>
       <c r="P33" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>600</v>
       </c>
       <c r="T33" s="3">
         <v>600</v>
@@ -2755,31 +2828,34 @@
         <v>600</v>
       </c>
       <c r="V33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W33" s="3">
         <v>500</v>
       </c>
       <c r="X33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,58 +2937,61 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>700</v>
       </c>
       <c r="I35" s="3">
         <v>700</v>
       </c>
       <c r="J35" s="3">
+        <v>700</v>
+      </c>
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>700</v>
       </c>
       <c r="M35" s="3">
         <v>700</v>
       </c>
       <c r="N35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O35" s="3">
         <v>600</v>
       </c>
       <c r="P35" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>600</v>
       </c>
       <c r="T35" s="3">
         <v>600</v>
@@ -2921,119 +3000,125 @@
         <v>600</v>
       </c>
       <c r="V35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W35" s="3">
         <v>500</v>
       </c>
       <c r="X35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E41" s="3">
         <v>36400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>135600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>34200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>29800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>37100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>30500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3216,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>28200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>46800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>2000</v>
       </c>
       <c r="T42" s="3">
         <v>2000</v>
@@ -3237,16 +3327,16 @@
         <v>2000</v>
       </c>
       <c r="V42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="W42" s="3">
         <v>700</v>
       </c>
       <c r="X42" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>2200</v>
       </c>
       <c r="Z42" s="3">
         <v>2200</v>
@@ -3255,13 +3345,16 @@
         <v>2200</v>
       </c>
       <c r="AB42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC42" s="3">
         <v>2500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,64 +3792,64 @@
         <v>5600</v>
       </c>
       <c r="E48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F48" s="3">
         <v>5700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5800</v>
       </c>
       <c r="G48" s="3">
         <v>5800</v>
       </c>
       <c r="H48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I48" s="3">
         <v>5900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6000</v>
       </c>
       <c r="J48" s="3">
         <v>6000</v>
       </c>
       <c r="K48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="L48" s="3">
         <v>6100</v>
       </c>
       <c r="M48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6400</v>
       </c>
       <c r="P48" s="3">
         <v>6400</v>
       </c>
       <c r="Q48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R48" s="3">
         <v>5900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>6000</v>
       </c>
       <c r="S48" s="3">
         <v>6000</v>
       </c>
       <c r="T48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U48" s="3">
         <v>6100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>5800</v>
       </c>
       <c r="W48" s="3">
         <v>5800</v>
       </c>
       <c r="X48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="Y48" s="3">
         <v>5900</v>
@@ -3753,13 +3861,16 @@
         <v>5900</v>
       </c>
       <c r="AB48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="AC48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>439300</v>
+      </c>
+      <c r="E54" s="3">
         <v>399800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>416600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>412800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>378500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>370200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>353300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>338700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>314800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>303500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>304000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>233100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>229500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>235500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>217000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>209500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>202000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>202200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>201000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>198100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>192800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>198300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>180300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>185300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>175100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,31 +4448,32 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4357,7 +4488,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4369,13 +4500,13 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4384,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4567,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4677,7 +4820,7 @@
         <v>13100</v>
       </c>
       <c r="K61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="L61" s="3">
         <v>3100</v>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>405900</v>
+      </c>
+      <c r="E66" s="3">
         <v>367500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>385700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>376900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>383800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>348900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>341000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>324900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>311200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>287600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>277000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>278100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>205100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>211600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>193800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>180300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>181200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>180500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>178100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>173300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>179000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>165900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>171400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>161600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E72" s="3">
         <v>24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E76" s="3">
         <v>32300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,146 +6198,152 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>700</v>
       </c>
       <c r="I81" s="3">
         <v>700</v>
       </c>
       <c r="J81" s="3">
+        <v>700</v>
+      </c>
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>700</v>
       </c>
       <c r="M81" s="3">
         <v>700</v>
       </c>
       <c r="N81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O81" s="3">
         <v>600</v>
       </c>
       <c r="P81" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>600</v>
       </c>
       <c r="T81" s="3">
         <v>600</v>
@@ -6157,31 +6352,34 @@
         <v>600</v>
       </c>
       <c r="V81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W81" s="3">
         <v>500</v>
       </c>
       <c r="X81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>CCBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="E8" s="3">
         <v>3900</v>
       </c>
       <c r="F8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2900</v>
       </c>
       <c r="M8" s="3">
         <v>2900</v>
       </c>
       <c r="N8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="O8" s="3">
         <v>2500</v>
       </c>
       <c r="P8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2100</v>
       </c>
       <c r="V8" s="3">
         <v>2100</v>
       </c>
       <c r="W8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1800</v>
       </c>
       <c r="Z8" s="3">
         <v>1800</v>
       </c>
       <c r="AA8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB8" s="3">
         <v>3400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,31 +1472,32 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1479,16 +1506,16 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1497,25 +1524,25 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
@@ -1524,102 +1551,108 @@
         <v>300</v>
       </c>
       <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC17" s="3">
         <v>200</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2100</v>
       </c>
       <c r="S18" s="3">
         <v>2100</v>
       </c>
       <c r="T18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U18" s="3">
         <v>2000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1900</v>
       </c>
       <c r="V18" s="3">
         <v>1900</v>
       </c>
       <c r="W18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="X18" s="3">
         <v>1700</v>
       </c>
       <c r="Y18" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Z18" s="3">
         <v>1500</v>
       </c>
       <c r="AA18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB18" s="3">
         <v>3100</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1500</v>
       </c>
       <c r="AC18" s="3">
         <v>1500</v>
       </c>
       <c r="AD18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE18" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,40 +1693,40 @@
         <v>-1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
       </c>
       <c r="M20" s="3">
         <v>-1400</v>
       </c>
       <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q20" s="3">
         <v>-1200</v>
@@ -1701,13 +1735,13 @@
         <v>-1200</v>
       </c>
       <c r="S20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1000</v>
       </c>
       <c r="V20" s="3">
         <v>-1000</v>
@@ -1719,25 +1753,28 @@
         <v>-1000</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,43 +1948,46 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1000</v>
       </c>
       <c r="J23" s="3">
         <v>1000</v>
       </c>
       <c r="K23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="3">
         <v>1200</v>
       </c>
       <c r="M23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N23" s="3">
         <v>1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>900</v>
       </c>
       <c r="O23" s="3">
         <v>900</v>
@@ -1953,49 +1996,52 @@
         <v>900</v>
       </c>
       <c r="Q23" s="3">
+        <v>900</v>
+      </c>
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
-      </c>
-      <c r="U23" s="3">
-        <v>800</v>
       </c>
       <c r="V23" s="3">
         <v>800</v>
       </c>
       <c r="W23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X23" s="3">
         <v>700</v>
       </c>
       <c r="Y23" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,16 +2052,16 @@
         <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -2036,13 +2082,13 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
@@ -2051,7 +2097,7 @@
         <v>300</v>
       </c>
       <c r="U24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
@@ -2063,25 +2109,28 @@
         <v>200</v>
       </c>
       <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>200</v>
       </c>
       <c r="AD24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,61 +2215,64 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
       </c>
       <c r="K26" s="3">
+        <v>700</v>
+      </c>
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>700</v>
       </c>
       <c r="N26" s="3">
         <v>700</v>
       </c>
       <c r="O26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P26" s="3">
         <v>600</v>
       </c>
       <c r="Q26" s="3">
+        <v>600</v>
+      </c>
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>600</v>
       </c>
       <c r="U26" s="3">
         <v>600</v>
@@ -2229,7 +2281,7 @@
         <v>600</v>
       </c>
       <c r="W26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X26" s="3">
         <v>500</v>
@@ -2241,72 +2293,75 @@
         <v>500</v>
       </c>
       <c r="AA26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB26" s="3">
         <v>800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>700</v>
       </c>
       <c r="K27" s="3">
+        <v>700</v>
+      </c>
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>700</v>
       </c>
       <c r="N27" s="3">
         <v>700</v>
       </c>
       <c r="O27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P27" s="3">
         <v>600</v>
       </c>
       <c r="Q27" s="3">
+        <v>600</v>
+      </c>
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>600</v>
       </c>
       <c r="U27" s="3">
         <v>600</v>
@@ -2315,7 +2370,7 @@
         <v>600</v>
       </c>
       <c r="W27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X27" s="3">
         <v>500</v>
@@ -2327,19 +2382,22 @@
         <v>500</v>
       </c>
       <c r="AA27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB27" s="3">
         <v>800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2492,12 +2553,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,40 +2761,40 @@
         <v>1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
       </c>
       <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
       </c>
       <c r="M32" s="3">
         <v>1400</v>
       </c>
       <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1200</v>
       </c>
       <c r="Q32" s="3">
         <v>1200</v>
@@ -2733,13 +2803,13 @@
         <v>1200</v>
       </c>
       <c r="S32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1000</v>
       </c>
       <c r="V32" s="3">
         <v>1000</v>
@@ -2751,78 +2821,81 @@
         <v>1000</v>
       </c>
       <c r="Y32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>700</v>
       </c>
       <c r="K33" s="3">
+        <v>700</v>
+      </c>
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>700</v>
       </c>
       <c r="N33" s="3">
         <v>700</v>
       </c>
       <c r="O33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P33" s="3">
         <v>600</v>
       </c>
       <c r="Q33" s="3">
+        <v>600</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>600</v>
       </c>
       <c r="U33" s="3">
         <v>600</v>
@@ -2831,31 +2904,34 @@
         <v>600</v>
       </c>
       <c r="W33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X33" s="3">
         <v>500</v>
       </c>
       <c r="Y33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,61 +3016,64 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>700</v>
       </c>
       <c r="K35" s="3">
+        <v>700</v>
+      </c>
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>700</v>
       </c>
       <c r="N35" s="3">
         <v>700</v>
       </c>
       <c r="O35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P35" s="3">
         <v>600</v>
       </c>
       <c r="Q35" s="3">
+        <v>600</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>600</v>
       </c>
       <c r="U35" s="3">
         <v>600</v>
@@ -3003,122 +3082,128 @@
         <v>600</v>
       </c>
       <c r="W35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X35" s="3">
         <v>500</v>
       </c>
       <c r="Y35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,102 +3267,106 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E41" s="3">
         <v>78200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>135600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>34200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>43700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>29800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>37100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>30500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3287,11 +3377,11 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3309,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>28200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>46800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>2000</v>
       </c>
       <c r="U42" s="3">
         <v>2000</v>
@@ -3330,16 +3420,16 @@
         <v>2000</v>
       </c>
       <c r="W42" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="X42" s="3">
         <v>700</v>
       </c>
       <c r="Y42" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>2200</v>
       </c>
       <c r="AA42" s="3">
         <v>2200</v>
@@ -3348,13 +3438,16 @@
         <v>2200</v>
       </c>
       <c r="AC42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AD42" s="3">
         <v>2500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,76 +3888,79 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E48" s="3">
         <v>5600</v>
       </c>
       <c r="F48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G48" s="3">
         <v>5700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5800</v>
       </c>
       <c r="H48" s="3">
         <v>5800</v>
       </c>
       <c r="I48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J48" s="3">
         <v>5900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6000</v>
       </c>
       <c r="K48" s="3">
         <v>6000</v>
       </c>
       <c r="L48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="M48" s="3">
         <v>6100</v>
       </c>
       <c r="N48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6400</v>
       </c>
       <c r="Q48" s="3">
         <v>6400</v>
       </c>
       <c r="R48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S48" s="3">
         <v>5900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6000</v>
       </c>
       <c r="T48" s="3">
         <v>6000</v>
       </c>
       <c r="U48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V48" s="3">
         <v>6100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5900</v>
-      </c>
-      <c r="W48" s="3">
-        <v>5800</v>
       </c>
       <c r="X48" s="3">
         <v>5800</v>
       </c>
       <c r="Y48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="Z48" s="3">
         <v>5900</v>
@@ -3864,13 +3972,16 @@
         <v>5900</v>
       </c>
       <c r="AC48" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="AD48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>453400</v>
+      </c>
+      <c r="E54" s="3">
         <v>439300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>399800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>416600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>412800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>378500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>370200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>353300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>338700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>314800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>303500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>304000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>233100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>229500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>235500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>217000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>209500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>202000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>202200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>201000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>198100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>192800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>198300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>180300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>185300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>175100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>182300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,34 +4579,35 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4491,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4503,13 +4634,13 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4518,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4823,7 +4966,7 @@
         <v>13100</v>
       </c>
       <c r="L61" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="M61" s="3">
         <v>3100</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>418600</v>
+      </c>
+      <c r="E66" s="3">
         <v>405900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>367500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>385700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>376900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>383800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>348900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>341000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>324900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>311200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>287600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>277000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>278100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>208000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>205100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>211600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>193800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>187200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>180300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>181200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>180500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>178100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>173300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>179000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>165900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>171400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>161600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E72" s="3">
         <v>25200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E76" s="3">
         <v>33400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,152 +6390,158 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>700</v>
       </c>
       <c r="K81" s="3">
+        <v>700</v>
+      </c>
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>700</v>
       </c>
       <c r="N81" s="3">
         <v>700</v>
       </c>
       <c r="O81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P81" s="3">
         <v>600</v>
       </c>
       <c r="Q81" s="3">
+        <v>600</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>600</v>
       </c>
       <c r="U81" s="3">
         <v>600</v>
@@ -6355,31 +6550,34 @@
         <v>600</v>
       </c>
       <c r="W81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X81" s="3">
         <v>500</v>
       </c>
       <c r="Y81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
